--- a/espn_scrapper/IPL/Chennai Super Kings/Kedar Jadhav .xlsx
+++ b/espn_scrapper/IPL/Chennai Super Kings/Kedar Jadhav .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,9 +612,79 @@
         <v>30.00</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve"> Oct 19 2020</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F7" t="str">
+        <v xml:space="preserve">Kedar Jadhav </v>
+      </c>
+      <c r="G7" t="str">
+        <v>4</v>
+      </c>
+      <c r="H7" t="str">
+        <v>7</v>
+      </c>
+      <c r="I7" t="str">
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> Sep 22 2020</v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Royals won by 16 runs</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve">Kedar Jadhav </v>
+      </c>
+      <c r="G8" t="str">
+        <v>22</v>
+      </c>
+      <c r="H8" t="str">
+        <v>16</v>
+      </c>
+      <c r="I8" t="str">
+        <v>3</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>137.50</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
   </ignoredErrors>
 </worksheet>
 </file>